--- a/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567ABE2-C2DC-40EA-B7DE-875419BF85D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3349A-CF11-4052-A0F1-2C2BCC3BDAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="26" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="27" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="28" r:id="rId3"/>
-    <sheet name="SensitivitySel" sheetId="29" r:id="rId4"/>
+    <sheet name="State-PF" sheetId="30" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="31" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="32" r:id="rId3"/>
+    <sheet name="SensitivitySel" sheetId="33" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1967,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1990B13E-2C05-4378-A500-7B929FACAA0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDE88DF-8A56-4A60-B01C-7C6E478D4FE2}">
   <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6637,14 +6637,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4F289-4E4C-455B-BDD9-6C7D9A63C780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD38B3AF-F326-4B29-8ED2-373F22489EA7}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L278"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8221,7 +8224,7 @@
         <v>274</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="7:9" x14ac:dyDescent="0.25">
@@ -8265,7 +8268,7 @@
         <v>286</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="7:9" x14ac:dyDescent="0.25">
@@ -8628,7 +8631,7 @@
         <v>344</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="7:9" x14ac:dyDescent="0.25">
@@ -8859,7 +8862,7 @@
         <v>388</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="7:9" x14ac:dyDescent="0.25">
@@ -9770,11 +9773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15724CF-4F6D-4D55-BA4E-B3D1B9AB0716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B559A0D7-487C-4246-BED5-5241B08A1AFA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9802,7 +9805,7 @@
         <v>522</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9810,7 +9813,7 @@
         <v>523</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9826,7 +9829,7 @@
         <v>525</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9835,14 +9838,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73009227-F5F7-4D29-ACE6-D4763975D978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C1D233-FAE7-4BB7-99ED-B3CE625978B8}">
   <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C273"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\Examples\ParticipationAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\Git\Simplex-Power-Systems\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3349A-CF11-4052-A0F1-2C2BCC3BDAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37681F-3355-4962-8B7D-7DA5B4F0B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="30" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="31" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="32" r:id="rId3"/>
-    <sheet name="SensitivitySel" sheetId="33" r:id="rId4"/>
+    <sheet name="State-PF" sheetId="34" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="35" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="36" r:id="rId3"/>
+    <sheet name="SensitivitySel" sheetId="37" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -914,16 +914,16 @@
     <t>Mode137</t>
   </si>
   <si>
+    <t>Mode138</t>
+  </si>
+  <si>
     <t>-1.62+2.43i</t>
   </si>
   <si>
-    <t>Mode138</t>
+    <t>Mode139</t>
   </si>
   <si>
     <t>-1.62-2.43i</t>
-  </si>
-  <si>
-    <t>Mode139</t>
   </si>
   <si>
     <t>Mode140</t>
@@ -1967,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDE88DF-8A56-4A60-B01C-7C6E478D4FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55516FC-39D8-4F28-A83C-EF2BF214782E}">
   <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4346,8 +4346,8 @@
       <c r="E143" t="s">
         <v>291</v>
       </c>
-      <c r="F143" t="s">
-        <v>292</v>
+      <c r="F143">
+        <v>-3.26</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4361,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
+        <v>292</v>
+      </c>
+      <c r="F144" t="s">
         <v>293</v>
-      </c>
-      <c r="F144" t="s">
-        <v>294</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
+        <v>294</v>
+      </c>
+      <c r="F145" t="s">
         <v>295</v>
-      </c>
-      <c r="F145">
-        <v>-3.26</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6637,17 +6637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD38B3AF-F326-4B29-8ED2-373F22489EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C00E47-17F8-4346-822D-91907EB34E43}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8224,7 +8221,7 @@
         <v>274</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="7:9" x14ac:dyDescent="0.25">
@@ -8268,7 +8265,7 @@
         <v>286</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="7:9" x14ac:dyDescent="0.25">
@@ -8286,8 +8283,8 @@
       <c r="G144" t="s">
         <v>291</v>
       </c>
-      <c r="H144" t="s">
-        <v>292</v>
+      <c r="H144">
+        <v>-3.26</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8295,10 +8292,10 @@
     </row>
     <row r="145" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
+        <v>292</v>
+      </c>
+      <c r="H145" t="s">
         <v>293</v>
-      </c>
-      <c r="H145" t="s">
-        <v>294</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -8306,10 +8303,10 @@
     </row>
     <row r="146" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
+        <v>294</v>
+      </c>
+      <c r="H146" t="s">
         <v>295</v>
-      </c>
-      <c r="H146">
-        <v>-3.26</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8631,7 +8628,7 @@
         <v>344</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="7:9" x14ac:dyDescent="0.25">
@@ -8862,7 +8859,7 @@
         <v>388</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="7:9" x14ac:dyDescent="0.25">
@@ -9200,7 +9197,7 @@
         <v>440</v>
       </c>
       <c r="H227" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -9211,7 +9208,7 @@
         <v>441</v>
       </c>
       <c r="H228" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -9773,11 +9770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B559A0D7-487C-4246-BED5-5241B08A1AFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E9FAC2-784E-4F5B-81BF-D5BD9F977C44}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9805,7 +9802,7 @@
         <v>522</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9813,7 +9810,7 @@
         <v>523</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9829,7 +9826,7 @@
         <v>525</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9838,18 +9835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C1D233-FAE7-4BB7-99ED-B3CE625978B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6639A49-EDDA-4104-A7E4-C45E4B4FB5C4}">
   <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174:C174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10521,7 +10514,7 @@
         <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -10532,7 +10525,7 @@
         <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -10565,7 +10558,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -10576,7 +10569,7 @@
         <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -10587,7 +10580,7 @@
         <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -10598,7 +10591,7 @@
         <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -10608,8 +10601,8 @@
       <c r="A70" t="s">
         <v>153</v>
       </c>
-      <c r="B70">
-        <v>-11.79</v>
+      <c r="B70" t="s">
+        <v>133</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -10619,8 +10612,8 @@
       <c r="A71" t="s">
         <v>155</v>
       </c>
-      <c r="B71">
-        <v>-9.41</v>
+      <c r="B71" t="s">
+        <v>135</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -10631,7 +10624,7 @@
         <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -10642,7 +10635,7 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -10653,7 +10646,7 @@
         <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -10664,7 +10657,7 @@
         <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -10675,7 +10668,7 @@
         <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -10686,7 +10679,7 @@
         <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -10697,7 +10690,7 @@
         <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -10708,7 +10701,7 @@
         <v>168</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -10719,7 +10712,7 @@
         <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -10730,7 +10723,7 @@
         <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -10741,7 +10734,7 @@
         <v>176</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -10752,7 +10745,7 @@
         <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -10785,7 +10778,7 @@
         <v>186</v>
       </c>
       <c r="B86">
-        <v>-8.5299999999999994</v>
+        <v>-11.79</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -10818,7 +10811,7 @@
         <v>193</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -10829,7 +10822,7 @@
         <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -10840,7 +10833,7 @@
         <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -10851,7 +10844,7 @@
         <v>197</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -10861,8 +10854,8 @@
       <c r="A93" t="s">
         <v>199</v>
       </c>
-      <c r="B93">
-        <v>-7.68</v>
+      <c r="B93" t="s">
+        <v>263</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -10873,7 +10866,7 @@
         <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -10884,7 +10877,7 @@
         <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -10895,7 +10888,7 @@
         <v>203</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -10905,8 +10898,8 @@
       <c r="A97" t="s">
         <v>205</v>
       </c>
-      <c r="B97" t="s">
-        <v>265</v>
+      <c r="B97">
+        <v>-9.41</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -10916,8 +10909,8 @@
       <c r="A98" t="s">
         <v>207</v>
       </c>
-      <c r="B98" t="s">
-        <v>145</v>
+      <c r="B98">
+        <v>-8.5299999999999994</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -10928,7 +10921,7 @@
         <v>210</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -10939,7 +10932,7 @@
         <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -10949,8 +10942,8 @@
       <c r="A101" t="s">
         <v>216</v>
       </c>
-      <c r="B101" t="s">
-        <v>152</v>
+      <c r="B101">
+        <v>-7.68</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -10961,7 +10954,7 @@
         <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -10972,7 +10965,7 @@
         <v>222</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -10983,7 +10976,7 @@
         <v>225</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -10994,7 +10987,7 @@
         <v>228</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -11005,7 +10998,7 @@
         <v>230</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -11016,7 +11009,7 @@
         <v>231</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -11071,7 +11064,7 @@
         <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -11082,7 +11075,7 @@
         <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -11093,7 +11086,7 @@
         <v>242</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -11104,7 +11097,7 @@
         <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -11115,7 +11108,7 @@
         <v>245</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -11126,7 +11119,7 @@
         <v>247</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -11268,8 +11261,8 @@
       <c r="A130" t="s">
         <v>268</v>
       </c>
-      <c r="B130">
-        <v>-4.2699999999999996</v>
+      <c r="B130" t="s">
+        <v>196</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -11279,8 +11272,8 @@
       <c r="A131" t="s">
         <v>269</v>
       </c>
-      <c r="B131">
-        <v>-4.03</v>
+      <c r="B131" t="s">
+        <v>198</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -11291,7 +11284,7 @@
         <v>271</v>
       </c>
       <c r="B132">
-        <v>-3.78</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -11301,8 +11294,8 @@
       <c r="A133" t="s">
         <v>273</v>
       </c>
-      <c r="B133" t="s">
-        <v>274</v>
+      <c r="B133">
+        <v>-4.03</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -11312,8 +11305,8 @@
       <c r="A134" t="s">
         <v>276</v>
       </c>
-      <c r="B134" t="s">
-        <v>277</v>
+      <c r="B134">
+        <v>-3.78</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -11324,7 +11317,7 @@
         <v>279</v>
       </c>
       <c r="B135" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -11335,7 +11328,7 @@
         <v>282</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -11346,7 +11339,7 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -11357,7 +11350,7 @@
         <v>288</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -11367,8 +11360,8 @@
       <c r="A139" t="s">
         <v>291</v>
       </c>
-      <c r="B139">
-        <v>-3.26</v>
+      <c r="B139" t="s">
+        <v>286</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -11376,10 +11369,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -11387,10 +11380,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>295</v>
-      </c>
-      <c r="B141" t="s">
         <v>294</v>
+      </c>
+      <c r="B141">
+        <v>-3.26</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -11400,8 +11393,8 @@
       <c r="A142" t="s">
         <v>296</v>
       </c>
-      <c r="B142" t="s">
-        <v>298</v>
+      <c r="B142">
+        <v>-2.93</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -11412,7 +11405,7 @@
         <v>297</v>
       </c>
       <c r="B143" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -11423,7 +11416,7 @@
         <v>299</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -11434,7 +11427,7 @@
         <v>301</v>
       </c>
       <c r="B145" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -11444,8 +11437,8 @@
       <c r="A146" t="s">
         <v>302</v>
       </c>
-      <c r="B146">
-        <v>-2.93</v>
+      <c r="B146" t="s">
+        <v>300</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -11456,7 +11449,7 @@
         <v>303</v>
       </c>
       <c r="B147" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -11467,7 +11460,7 @@
         <v>305</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -11500,7 +11493,7 @@
         <v>311</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -11511,7 +11504,7 @@
         <v>312</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -11522,7 +11515,7 @@
         <v>313</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -11533,7 +11526,7 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -11544,7 +11537,7 @@
         <v>317</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -11555,7 +11548,7 @@
         <v>318</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -11566,7 +11559,7 @@
         <v>319</v>
       </c>
       <c r="B157" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -11577,7 +11570,7 @@
         <v>322</v>
       </c>
       <c r="B158" t="s">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -11676,7 +11669,7 @@
         <v>339</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -11687,7 +11680,7 @@
         <v>340</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -11698,7 +11691,7 @@
         <v>341</v>
       </c>
       <c r="B169" t="s">
-        <v>356</v>
+        <v>196</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -11709,7 +11702,7 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -11741,8 +11734,8 @@
       <c r="A173" t="s">
         <v>352</v>
       </c>
-      <c r="B173">
-        <v>-1.67</v>
+      <c r="B173" t="s">
+        <v>344</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -11753,7 +11746,7 @@
         <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -11764,7 +11757,7 @@
         <v>358</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -11775,7 +11768,7 @@
         <v>361</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -11786,7 +11779,7 @@
         <v>364</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -11797,7 +11790,7 @@
         <v>366</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -11807,8 +11800,8 @@
       <c r="A179" t="s">
         <v>367</v>
       </c>
-      <c r="B179" t="s">
-        <v>177</v>
+      <c r="B179">
+        <v>-1.67</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -11841,7 +11834,7 @@
         <v>370</v>
       </c>
       <c r="B182" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -11852,7 +11845,7 @@
         <v>371</v>
       </c>
       <c r="B183" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11863,7 +11856,7 @@
         <v>372</v>
       </c>
       <c r="B184" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -11874,7 +11867,7 @@
         <v>373</v>
       </c>
       <c r="B185" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -11885,7 +11878,7 @@
         <v>375</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>394</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -11896,7 +11889,7 @@
         <v>377</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -11907,7 +11900,7 @@
         <v>380</v>
       </c>
       <c r="B188" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -11918,7 +11911,7 @@
         <v>383</v>
       </c>
       <c r="B189" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -12127,7 +12120,7 @@
         <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -12138,7 +12131,7 @@
         <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -12149,7 +12142,7 @@
         <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -12160,7 +12153,7 @@
         <v>418</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -12435,7 +12428,7 @@
         <v>460</v>
       </c>
       <c r="B236" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -12446,7 +12439,7 @@
         <v>461</v>
       </c>
       <c r="B237" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -12457,7 +12450,7 @@
         <v>463</v>
       </c>
       <c r="B238" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -12468,7 +12461,7 @@
         <v>465</v>
       </c>
       <c r="B239" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -12501,7 +12494,7 @@
         <v>468</v>
       </c>
       <c r="B242" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -12512,7 +12505,7 @@
         <v>469</v>
       </c>
       <c r="B243" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -12633,7 +12626,7 @@
         <v>484</v>
       </c>
       <c r="B254" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -12644,7 +12637,7 @@
         <v>485</v>
       </c>
       <c r="B255" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C255">
         <v>0</v>

--- a/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\Git\Simplex-Power-Systems\Examples\ParticipationAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplus-Grid-Tool\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37681F-3355-4962-8B7D-7DA5B4F0B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3690B8B9-D7A1-4E62-A939-A2AA22BB9E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
+    <workbookView xWindow="4785" yWindow="2910" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="34" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="35" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="36" r:id="rId3"/>
-    <sheet name="SensitivitySel" sheetId="37" r:id="rId4"/>
+    <sheet name="State-PF" sheetId="38" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="39" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="40" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="527">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -914,18 +913,18 @@
     <t>Mode137</t>
   </si>
   <si>
+    <t>-1.62+2.43i</t>
+  </si>
+  <si>
     <t>Mode138</t>
   </si>
   <si>
-    <t>-1.62+2.43i</t>
+    <t>-1.62-2.43i</t>
   </si>
   <si>
     <t>Mode139</t>
   </si>
   <si>
-    <t>-1.62-2.43i</t>
-  </si>
-  <si>
     <t>Mode140</t>
   </si>
   <si>
@@ -1616,7 +1615,7 @@
     <t>Impedance-PF Layer 3</t>
   </si>
   <si>
-    <t>Mode selection for eigenvalue sensitivity analysis</t>
+    <t>whole-system sensitivity</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55516FC-39D8-4F28-A83C-EF2BF214782E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6877570-0150-41EB-BFA0-9127D43DB4BB}">
   <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4346,8 +4345,8 @@
       <c r="E143" t="s">
         <v>291</v>
       </c>
-      <c r="F143">
-        <v>-3.26</v>
+      <c r="F143" t="s">
+        <v>292</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4361,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4378,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>294</v>
-      </c>
-      <c r="F145" t="s">
         <v>295</v>
+      </c>
+      <c r="F145">
+        <v>-3.26</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5758,7 +5757,7 @@
         <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -5775,7 +5774,7 @@
         <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6637,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C00E47-17F8-4346-822D-91907EB34E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ED07D6-396F-42CE-A1B0-C9F9EC75B4F2}">
   <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8283,8 +8282,8 @@
       <c r="G144" t="s">
         <v>291</v>
       </c>
-      <c r="H144">
-        <v>-3.26</v>
+      <c r="H144" t="s">
+        <v>292</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8292,10 +8291,10 @@
     </row>
     <row r="145" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -8303,10 +8302,10 @@
     </row>
     <row r="146" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" t="s">
         <v>295</v>
+      </c>
+      <c r="H146">
+        <v>-3.26</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9197,7 +9196,7 @@
         <v>440</v>
       </c>
       <c r="H227" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -9208,7 +9207,7 @@
         <v>441</v>
       </c>
       <c r="H228" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -9770,11 +9769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E9FAC2-784E-4F5B-81BF-D5BD9F977C44}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C9136-913A-40E3-86B5-3CF74EC63F83}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9829,3016 +9828,12 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6639A49-EDDA-4104-A7E4-C45E4B4FB5C4}">
-  <dimension ref="A1:C273"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C273"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52">
-        <v>-34.4</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53">
-        <v>-33.92</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54">
-        <v>-21.81</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55">
-        <v>-18.489999999999998</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" t="s">
-        <v>241</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>186</v>
-      </c>
-      <c r="B86">
-        <v>-11.79</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" t="s">
-        <v>159</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>195</v>
-      </c>
-      <c r="B91" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>200</v>
-      </c>
-      <c r="B94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>201</v>
-      </c>
-      <c r="B95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>205</v>
-      </c>
-      <c r="B97">
-        <v>-9.41</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98">
-        <v>-8.5299999999999994</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>213</v>
-      </c>
-      <c r="B100" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>216</v>
-      </c>
-      <c r="B101">
-        <v>-7.68</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>222</v>
-      </c>
-      <c r="B103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>225</v>
-      </c>
-      <c r="B104" t="s">
-        <v>233</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>230</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>231</v>
-      </c>
-      <c r="B107" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>232</v>
-      </c>
-      <c r="B108" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" t="s">
-        <v>316</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" t="s">
-        <v>254</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" t="s">
-        <v>263</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>240</v>
-      </c>
-      <c r="B113" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>242</v>
-      </c>
-      <c r="B114" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" t="s">
-        <v>156</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" t="s">
-        <v>233</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>247</v>
-      </c>
-      <c r="B117" t="s">
-        <v>235</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>249</v>
-      </c>
-      <c r="B118" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>251</v>
-      </c>
-      <c r="B119" t="s">
-        <v>316</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>253</v>
-      </c>
-      <c r="B120" t="s">
-        <v>226</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>256</v>
-      </c>
-      <c r="B121" t="s">
-        <v>229</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>258</v>
-      </c>
-      <c r="B122" t="s">
-        <v>226</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>259</v>
-      </c>
-      <c r="B123" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>260</v>
-      </c>
-      <c r="B124" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>261</v>
-      </c>
-      <c r="B125" t="s">
-        <v>310</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>262</v>
-      </c>
-      <c r="B126" t="s">
-        <v>308</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>264</v>
-      </c>
-      <c r="B127" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>266</v>
-      </c>
-      <c r="B128" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>267</v>
-      </c>
-      <c r="B129" t="s">
-        <v>198</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B130" t="s">
-        <v>196</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" t="s">
-        <v>198</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132">
-        <v>-4.2699999999999996</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>273</v>
-      </c>
-      <c r="B133">
-        <v>-4.03</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>276</v>
-      </c>
-      <c r="B134">
-        <v>-3.78</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>279</v>
-      </c>
-      <c r="B135" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>282</v>
-      </c>
-      <c r="B136" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>285</v>
-      </c>
-      <c r="B137" t="s">
-        <v>280</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>288</v>
-      </c>
-      <c r="B138" t="s">
-        <v>283</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" t="s">
-        <v>286</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" t="s">
-        <v>289</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141">
-        <v>-3.26</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>296</v>
-      </c>
-      <c r="B142">
-        <v>-2.93</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>297</v>
-      </c>
-      <c r="B143" t="s">
-        <v>293</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>299</v>
-      </c>
-      <c r="B144" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>301</v>
-      </c>
-      <c r="B145" t="s">
-        <v>298</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>302</v>
-      </c>
-      <c r="B146" t="s">
-        <v>300</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>303</v>
-      </c>
-      <c r="B147" t="s">
-        <v>304</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>307</v>
-      </c>
-      <c r="B149" t="s">
-        <v>233</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>309</v>
-      </c>
-      <c r="B150" t="s">
-        <v>235</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>311</v>
-      </c>
-      <c r="B151" t="s">
-        <v>350</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>312</v>
-      </c>
-      <c r="B152" t="s">
-        <v>353</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>313</v>
-      </c>
-      <c r="B153" t="s">
-        <v>378</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>315</v>
-      </c>
-      <c r="B154" t="s">
-        <v>381</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>317</v>
-      </c>
-      <c r="B155" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" t="s">
-        <v>310</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>319</v>
-      </c>
-      <c r="B157" t="s">
-        <v>226</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>322</v>
-      </c>
-      <c r="B158" t="s">
-        <v>229</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>325</v>
-      </c>
-      <c r="B159" t="s">
-        <v>378</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>327</v>
-      </c>
-      <c r="B160" t="s">
-        <v>381</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" t="s">
-        <v>320</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>332</v>
-      </c>
-      <c r="B162" t="s">
-        <v>323</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>335</v>
-      </c>
-      <c r="B163" t="s">
-        <v>169</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>336</v>
-      </c>
-      <c r="B164" t="s">
-        <v>171</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>337</v>
-      </c>
-      <c r="B165" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166" t="s">
-        <v>359</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>339</v>
-      </c>
-      <c r="B167" t="s">
-        <v>356</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>340</v>
-      </c>
-      <c r="B168" t="s">
-        <v>359</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>341</v>
-      </c>
-      <c r="B169" t="s">
-        <v>196</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>343</v>
-      </c>
-      <c r="B170" t="s">
-        <v>198</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>346</v>
-      </c>
-      <c r="B171" t="s">
-        <v>330</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>349</v>
-      </c>
-      <c r="B172" t="s">
-        <v>333</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>352</v>
-      </c>
-      <c r="B173" t="s">
-        <v>344</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>355</v>
-      </c>
-      <c r="B174" t="s">
-        <v>347</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>358</v>
-      </c>
-      <c r="B175" t="s">
-        <v>173</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>361</v>
-      </c>
-      <c r="B176" t="s">
-        <v>177</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>364</v>
-      </c>
-      <c r="B177" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>366</v>
-      </c>
-      <c r="B178" t="s">
-        <v>177</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>367</v>
-      </c>
-      <c r="B179">
-        <v>-1.67</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>368</v>
-      </c>
-      <c r="B180" t="s">
-        <v>362</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>369</v>
-      </c>
-      <c r="B181" t="s">
-        <v>365</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" t="s">
-        <v>314</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>371</v>
-      </c>
-      <c r="B183" t="s">
-        <v>316</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>372</v>
-      </c>
-      <c r="B184" t="s">
-        <v>394</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>373</v>
-      </c>
-      <c r="B185" t="s">
-        <v>396</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>375</v>
-      </c>
-      <c r="B186" t="s">
-        <v>394</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>377</v>
-      </c>
-      <c r="B187" t="s">
-        <v>396</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>380</v>
-      </c>
-      <c r="B188" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>383</v>
-      </c>
-      <c r="B189" t="s">
-        <v>187</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>385</v>
-      </c>
-      <c r="B190" t="s">
-        <v>190</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>387</v>
-      </c>
-      <c r="B191" t="s">
-        <v>192</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>389</v>
-      </c>
-      <c r="B192" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>391</v>
-      </c>
-      <c r="B193" t="s">
-        <v>396</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>392</v>
-      </c>
-      <c r="B194" t="s">
-        <v>394</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>393</v>
-      </c>
-      <c r="B195" t="s">
-        <v>396</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>395</v>
-      </c>
-      <c r="B196" t="s">
-        <v>374</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>397</v>
-      </c>
-      <c r="B197" t="s">
-        <v>376</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>398</v>
-      </c>
-      <c r="B198" t="s">
-        <v>388</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>399</v>
-      </c>
-      <c r="B199" t="s">
-        <v>390</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>400</v>
-      </c>
-      <c r="B200">
-        <v>-1.04</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>401</v>
-      </c>
-      <c r="B201" t="s">
-        <v>356</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>402</v>
-      </c>
-      <c r="B202" t="s">
-        <v>359</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>403</v>
-      </c>
-      <c r="B203">
-        <v>-1</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204">
-        <v>-0.37</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>405</v>
-      </c>
-      <c r="B205">
-        <v>-0.16</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>406</v>
-      </c>
-      <c r="B206" t="s">
-        <v>410</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>407</v>
-      </c>
-      <c r="B207" t="s">
-        <v>413</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>409</v>
-      </c>
-      <c r="B208" t="s">
-        <v>416</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>412</v>
-      </c>
-      <c r="B209" t="s">
-        <v>419</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>415</v>
-      </c>
-      <c r="B210" t="s">
-        <v>422</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>418</v>
-      </c>
-      <c r="B211" t="s">
-        <v>425</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>421</v>
-      </c>
-      <c r="B212" t="s">
-        <v>378</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>424</v>
-      </c>
-      <c r="B213" t="s">
-        <v>381</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>427</v>
-      </c>
-      <c r="B214" t="s">
-        <v>394</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>429</v>
-      </c>
-      <c r="B215" t="s">
-        <v>396</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>430</v>
-      </c>
-      <c r="B216" t="s">
-        <v>394</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>432</v>
-      </c>
-      <c r="B217" t="s">
-        <v>396</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>434</v>
-      </c>
-      <c r="B218">
-        <v>-0.03</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>435</v>
-      </c>
-      <c r="B219">
-        <v>-0.06</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>436</v>
-      </c>
-      <c r="B220">
-        <v>-0.02</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>438</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>440</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>441</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>443</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>445</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>447</v>
-      </c>
-      <c r="B226" t="s">
-        <v>431</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>449</v>
-      </c>
-      <c r="B227" t="s">
-        <v>433</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>450</v>
-      </c>
-      <c r="B228" t="s">
-        <v>437</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>451</v>
-      </c>
-      <c r="B229" t="s">
-        <v>439</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>452</v>
-      </c>
-      <c r="B230" t="s">
-        <v>437</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>453</v>
-      </c>
-      <c r="B231" t="s">
-        <v>439</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>454</v>
-      </c>
-      <c r="B232" t="s">
-        <v>431</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>455</v>
-      </c>
-      <c r="B233" t="s">
-        <v>433</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>457</v>
-      </c>
-      <c r="B234" t="s">
-        <v>437</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>459</v>
-      </c>
-      <c r="B235" t="s">
-        <v>439</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>460</v>
-      </c>
-      <c r="B236" t="s">
-        <v>431</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>461</v>
-      </c>
-      <c r="B237" t="s">
-        <v>433</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>463</v>
-      </c>
-      <c r="B238" t="s">
-        <v>437</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>465</v>
-      </c>
-      <c r="B239" t="s">
-        <v>439</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>466</v>
-      </c>
-      <c r="B240" t="s">
-        <v>437</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>467</v>
-      </c>
-      <c r="B241" t="s">
-        <v>439</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>468</v>
-      </c>
-      <c r="B242" t="s">
-        <v>437</v>
-      </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>469</v>
-      </c>
-      <c r="B243" t="s">
-        <v>439</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>471</v>
-      </c>
-      <c r="B244" t="s">
-        <v>431</v>
-      </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>473</v>
-      </c>
-      <c r="B245" t="s">
-        <v>433</v>
-      </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>475</v>
-      </c>
-      <c r="B246" t="s">
-        <v>431</v>
-      </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>477</v>
-      </c>
-      <c r="B247" t="s">
-        <v>433</v>
-      </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>478</v>
-      </c>
-      <c r="B248" t="s">
-        <v>437</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>479</v>
-      </c>
-      <c r="B249" t="s">
-        <v>439</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>480</v>
-      </c>
-      <c r="B250" t="s">
-        <v>437</v>
-      </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>481</v>
-      </c>
-      <c r="B251" t="s">
-        <v>439</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>482</v>
-      </c>
-      <c r="B252" t="s">
-        <v>437</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>483</v>
-      </c>
-      <c r="B253" t="s">
-        <v>439</v>
-      </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>484</v>
-      </c>
-      <c r="B254" t="s">
-        <v>437</v>
-      </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>485</v>
-      </c>
-      <c r="B255" t="s">
-        <v>439</v>
-      </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>486</v>
-      </c>
-      <c r="B256" t="s">
-        <v>431</v>
-      </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>487</v>
-      </c>
-      <c r="B257" t="s">
-        <v>433</v>
-      </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>489</v>
-      </c>
-      <c r="B258" t="s">
-        <v>437</v>
-      </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>491</v>
-      </c>
-      <c r="B259" t="s">
-        <v>439</v>
-      </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>493</v>
-      </c>
-      <c r="B260" t="s">
-        <v>431</v>
-      </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>495</v>
-      </c>
-      <c r="B261" t="s">
-        <v>433</v>
-      </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>496</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>497</v>
-      </c>
-      <c r="B263">
-        <v>-0.32</v>
-      </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>498</v>
-      </c>
-      <c r="B264">
-        <v>-0.27</v>
-      </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>499</v>
-      </c>
-      <c r="B265">
-        <v>-0.02</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>500</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>501</v>
-      </c>
-      <c r="B267">
-        <v>-0.32</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>502</v>
-      </c>
-      <c r="B268">
-        <v>-0.27</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>503</v>
-      </c>
-      <c r="B269">
-        <v>-0.02</v>
-      </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>504</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>505</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>507</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>509</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273">
-        <v>0</v>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
